--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UID</t>
   </si>
@@ -44,31 +44,13 @@
   </si>
   <si>
     <t>Total Score</t>
-  </si>
-  <si>
-    <t>12133dfvdfv</t>
-  </si>
-  <si>
-    <t>dvfsvsf</t>
-  </si>
-  <si>
-    <t>sfvsfvs</t>
-  </si>
-  <si>
-    <t>sfvsf</t>
-  </si>
-  <si>
-    <t>fsvsfv</t>
-  </si>
-  <si>
-    <t>fv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -77,11 +59,6 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -101,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -110,9 +87,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,32 +363,6 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>23123.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
